--- a/UiPath.Web/Variations/LoanQuotes.xlsx
+++ b/UiPath.Web/Variations/LoanQuotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\UiPath\LoanProcess\UiPathBankApp\UiPath.Web\Variations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2BEED-D1B8-4E7C-A020-6A07DAAC4336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EF4AC-067F-4ED0-9542-8AB6D19D17E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8E99F4BB-3EF9-4E63-B67B-9BE5CBCBBCF3}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,10 +550,7 @@
         <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
